--- a/config_Release/game_gift_style_config.xlsx
+++ b/config_Release/game_gift_style_config.xlsx
@@ -564,30 +564,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"60万金币","10万金币","5万小游戏币","480万金币","20万金币","10万小游戏币","980万金币","30万金币","20万小游戏币",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"10万金币","10万金币","锁定*1","30万金币","20万金币","锁定*2","60万金币","30万金币","锁定*3",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"60万金币","20万金币","锁定*3","100万金币","20万金币","10万小游戏币","180万金币","20万金币","20万小游戏币",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"180万金币","10万金币","10万小游戏币","480万金币","20万金币","10万小游戏币","980万金币","30万金币","20万小游戏币",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"480万金币","20万金币","10万小游戏币","980万金币","30万金币","20万小游戏币","1980万金币","80万金币","30万小游戏币",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"980万金币","30万金币","20万小游戏币","1980万金币","80万金币","30万小游戏币","4980万金币","150万金币","50万小游戏币",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>FFEABFFF</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -620,6 +596,26 @@
   </si>
   <si>
     <t>"pay_icon_gold7","com_icon_yb","com_award_icon_chanz1","pay_icon_gold8","com_award_icon_yb1","com_award_icon_chanz2","pay_icon_gold10","com_award_icon_yb2","com_award_icon_chanz3",</t>
+  </si>
+  <si>
+    <t>"60万","10万","5万","480万","20万","10万","980万","30万","20万",</t>
+  </si>
+  <si>
+    <t>"180万","10万","10万","480万","20万","10万","980万","30万","20万",</t>
+  </si>
+  <si>
+    <t>"480万","20万","10万","980万","30万","20万","1980万","80万","30万",</t>
+  </si>
+  <si>
+    <t>"980万","30万","20万","1980万","80万","30万","4980万","150万","50万",</t>
+  </si>
+  <si>
+    <t>"60万","20万","3","100万","20万","10万","180万","20万","20万",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"10万","10万","1","30万","20万","2","60万","30万","3",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1095,10 +1091,10 @@
   <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O7" sqref="O7"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1305,13 +1301,13 @@
         <v>49</v>
       </c>
       <c r="N4" s="29" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="O4" s="30" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="P4" s="32" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="Q4" s="30"/>
       <c r="R4" s="30"/>
@@ -1364,10 +1360,10 @@
         <v>65</v>
       </c>
       <c r="O5" s="30" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="P5" s="32" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="Q5" s="30"/>
       <c r="R5" s="30"/>
@@ -1420,10 +1416,10 @@
         <v>65</v>
       </c>
       <c r="O6" s="30" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="Q6" s="30"/>
       <c r="R6" s="30"/>
@@ -1476,10 +1472,10 @@
         <v>65</v>
       </c>
       <c r="O7" s="30" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="30"/>
       <c r="R7" s="30"/>
@@ -1532,10 +1528,10 @@
         <v>65</v>
       </c>
       <c r="O8" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="P8" s="32" t="s">
         <v>152</v>
-      </c>
-      <c r="P8" s="32" t="s">
-        <v>158</v>
       </c>
       <c r="Q8" s="30"/>
       <c r="R8" s="30"/>
@@ -1588,10 +1584,10 @@
         <v>65</v>
       </c>
       <c r="O9" s="30" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="Q9" s="30"/>
       <c r="R9" s="30"/>
@@ -1647,7 +1643,7 @@
         <v>29</v>
       </c>
       <c r="P10" s="23" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="Q10" s="22"/>
       <c r="R10" s="22"/>
@@ -1703,7 +1699,7 @@
         <v>93</v>
       </c>
       <c r="P11" s="23" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="Q11" s="22"/>
       <c r="R11" s="22"/>
@@ -1759,7 +1755,7 @@
         <v>94</v>
       </c>
       <c r="P12" s="23" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="Q12" s="22"/>
       <c r="R12" s="22"/>
@@ -1815,7 +1811,7 @@
         <v>30</v>
       </c>
       <c r="P13" s="23" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="Q13" s="22"/>
       <c r="R13" s="22"/>
@@ -1871,7 +1867,7 @@
         <v>31</v>
       </c>
       <c r="P14" s="23" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="22"/>
       <c r="R14" s="22"/>
@@ -1917,13 +1913,13 @@
         <v>60</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="O15" s="10" t="s">
         <v>29</v>
       </c>
       <c r="P15" s="11" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="S15" s="10">
         <v>0</v>
@@ -1973,7 +1969,7 @@
         <v>93</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="S16" s="10">
         <v>0</v>
@@ -2023,7 +2019,7 @@
         <v>94</v>
       </c>
       <c r="P17" s="11" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="S17" s="10">
         <v>0</v>
@@ -2073,7 +2069,7 @@
         <v>30</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="S18" s="10">
         <v>0</v>
@@ -2123,7 +2119,7 @@
         <v>31</v>
       </c>
       <c r="P19" s="11" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="S19" s="10">
         <v>0</v>
@@ -2173,7 +2169,7 @@
         <v>121</v>
       </c>
       <c r="P20" s="26" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="Q20" s="17"/>
       <c r="R20" s="17"/>
@@ -2225,7 +2221,7 @@
         <v>122</v>
       </c>
       <c r="P21" s="18" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="Q21" s="17"/>
       <c r="R21" s="17"/>
@@ -2277,7 +2273,7 @@
         <v>123</v>
       </c>
       <c r="P22" s="18" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="17"/>
       <c r="R22" s="17"/>
@@ -2329,7 +2325,7 @@
         <v>124</v>
       </c>
       <c r="P23" s="18" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="Q23" s="17"/>
       <c r="R23" s="17"/>
@@ -2381,7 +2377,7 @@
         <v>125</v>
       </c>
       <c r="P24" s="18" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="Q24" s="17"/>
       <c r="R24" s="17"/>
@@ -2437,7 +2433,7 @@
         <v>29</v>
       </c>
       <c r="P25" s="11" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="S25" s="10">
         <v>0</v>
@@ -2491,7 +2487,7 @@
         <v>93</v>
       </c>
       <c r="P26" s="11" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="S26" s="10">
         <v>0</v>
@@ -2545,7 +2541,7 @@
         <v>94</v>
       </c>
       <c r="P27" s="11" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="S27" s="10">
         <v>0</v>
@@ -2599,7 +2595,7 @@
         <v>30</v>
       </c>
       <c r="P28" s="11" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="S28" s="10">
         <v>0</v>
@@ -2653,7 +2649,7 @@
         <v>31</v>
       </c>
       <c r="P29" s="11" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="S29" s="10">
         <v>0</v>

--- a/config_Release/game_gift_style_config.xlsx
+++ b/config_Release/game_gift_style_config.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -568,36 +568,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"pay_icon_gold7","pay_icon_gold3","ty_icon_yxb_2","pay_icon_gold8","pay_icon_gold11","ty_icon_yxb_2","pay_icon_gold10","pay_icon_gold4","ty_icon_yxb_2",</t>
-  </si>
-  <si>
-    <t>"pay_icon_gold7","pay_icon_gold3","3dby_btn_sd","pay_icon_gold8","pay_icon_gold11","3dby_btn_sd","pay_icon_gold10","pay_icon_gold4","3dby_btn_sd",</t>
-  </si>
-  <si>
-    <t>"pay_icon_gold7","pay_icon_gold3","3dby_btn_sd","pay_icon_gold8","pay_icon_gold11","ty_icon_yxb_2","pay_icon_gold10","pay_icon_gold4","ty_icon_yxb_4",</t>
-  </si>
-  <si>
-    <t>"pay_icon_gold7","pay_icon_gold3","ty_icon_yxb_2","pay_icon_gold8","pay_icon_gold11","ty_icon_yxb_4","pay_icon_gold10","pay_icon_gold4","ty_icon_yxb_5",</t>
-  </si>
-  <si>
-    <t>"pay_icon_gold7","pay_icon_gold3","bag_icon_jipaiqi","pay_icon_gold8","pay_icon_gold11","bag_icon_jipaiqi","pay_icon_gold10","pay_icon_gold4","bag_icon_jipaiqi",</t>
-  </si>
-  <si>
-    <t>"pay_icon_gold7","pay_icon_gold3","bag_icon_jipaiqi","pay_icon_gold8","pay_icon_gold11","com_award_icon_yb1","pay_icon_gold10","pay_icon_gold4","com_award_icon_yb2",</t>
-  </si>
-  <si>
-    <t>"pay_icon_gold7","pay_icon_gold3","com_icon_yb","pay_icon_gold8","pay_icon_gold11","com_award_icon_yb1","pay_icon_gold10","pay_icon_gold4","com_award_icon_yb2",</t>
-  </si>
-  <si>
-    <t>"pay_icon_gold7","bag_icon_jipaiqi","com_award_icon_chanz1","pay_icon_gold8","bag_icon_jipaiqi","com_award_icon_chanz2","pay_icon_gold10","bag_icon_jipaiqi","com_award_icon_chanz3",</t>
-  </si>
-  <si>
-    <t>"pay_icon_gold7","bag_icon_jipaiqi","com_award_icon_chanz1","pay_icon_gold8","com_award_icon_yb1","com_award_icon_chanz2","pay_icon_gold10","com_award_icon_yb2","com_award_icon_chanz3",</t>
-  </si>
-  <si>
-    <t>"pay_icon_gold7","com_icon_yb","com_award_icon_chanz1","pay_icon_gold8","com_award_icon_yb1","com_award_icon_chanz2","pay_icon_gold10","com_award_icon_yb2","com_award_icon_chanz3",</t>
-  </si>
-  <si>
     <t>"60万","10万","5万","480万","20万","10万","980万","30万","20万",</t>
   </si>
   <si>
@@ -616,6 +586,36 @@
   <si>
     <t>"10万","10万","1","30万","20万","2","60万","30万","3",</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","bag_icon_jipaiqi","com_award_icon_chanz1","ty_icon_jb_998y","bag_icon_jipaiqi","com_award_icon_chanz2","ty_icon_jb_2498y","bag_icon_jipaiqi","com_award_icon_chanz3",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","bag_icon_jipaiqi","com_award_icon_chanz1","ty_icon_jb_998y","com_award_icon_yb1","com_award_icon_chanz2","ty_icon_jb_2498y","com_award_icon_yb2","com_award_icon_chanz3",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","com_icon_yb","com_award_icon_chanz1","ty_icon_jb_998y","com_award_icon_yb1","com_award_icon_chanz2","ty_icon_jb_2498y","com_award_icon_yb2","com_award_icon_chanz3",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","ty_icon_jb_30y","ty_icon_yxb_2","ty_icon_jb_998y","ty_icon_jb_50y","ty_icon_yxb_2","ty_icon_jb_2498y","ty_icon_jb_198y","ty_icon_yxb_2",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","ty_icon_jb_30y","3dby_btn_sd","ty_icon_jb_998y","ty_icon_jb_50y","3dby_btn_sd","ty_icon_jb_2498y","ty_icon_jb_198y","3dby_btn_sd",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","ty_icon_jb_30y","3dby_btn_sd","ty_icon_jb_998y","ty_icon_jb_50y","ty_icon_yxb_2","ty_icon_jb_2498y","ty_icon_jb_198y","ty_icon_yxb_4",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","ty_icon_jb_30y","ty_icon_yxb_2","ty_icon_jb_998y","ty_icon_jb_50y","ty_icon_yxb_4","ty_icon_jb_2498y","ty_icon_jb_198y","ty_icon_yxb_5",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","ty_icon_jb_30y","bag_icon_jipaiqi","ty_icon_jb_998y","ty_icon_jb_50y","bag_icon_jipaiqi","ty_icon_jb_2498y","ty_icon_jb_198y","bag_icon_jipaiqi",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","ty_icon_jb_30y","bag_icon_jipaiqi","ty_icon_jb_998y","ty_icon_jb_50y","com_award_icon_yb1","ty_icon_jb_2498y","ty_icon_jb_198y","com_award_icon_yb2",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","ty_icon_jb_30y","com_icon_yb","ty_icon_jb_998y","ty_icon_jb_50y","com_award_icon_yb1","ty_icon_jb_2498y","ty_icon_jb_198y","com_award_icon_yb2",</t>
   </si>
 </sst>
 </file>
@@ -1091,10 +1091,10 @@
   <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1304,10 +1304,10 @@
         <v>148</v>
       </c>
       <c r="O4" s="30" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="P4" s="32" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="Q4" s="30"/>
       <c r="R4" s="30"/>
@@ -1360,10 +1360,10 @@
         <v>65</v>
       </c>
       <c r="O5" s="30" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="P5" s="32" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="Q5" s="30"/>
       <c r="R5" s="30"/>
@@ -1416,10 +1416,10 @@
         <v>65</v>
       </c>
       <c r="O6" s="30" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="Q6" s="30"/>
       <c r="R6" s="30"/>
@@ -1472,10 +1472,10 @@
         <v>65</v>
       </c>
       <c r="O7" s="30" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="Q7" s="30"/>
       <c r="R7" s="30"/>
@@ -1528,10 +1528,10 @@
         <v>65</v>
       </c>
       <c r="O8" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="P8" s="32" t="s">
         <v>161</v>
-      </c>
-      <c r="P8" s="32" t="s">
-        <v>152</v>
       </c>
       <c r="Q8" s="30"/>
       <c r="R8" s="30"/>
@@ -1584,10 +1584,10 @@
         <v>65</v>
       </c>
       <c r="O9" s="30" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="Q9" s="30"/>
       <c r="R9" s="30"/>
@@ -1643,7 +1643,7 @@
         <v>29</v>
       </c>
       <c r="P10" s="23" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="Q10" s="22"/>
       <c r="R10" s="22"/>
@@ -1699,7 +1699,7 @@
         <v>93</v>
       </c>
       <c r="P11" s="23" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="Q11" s="22"/>
       <c r="R11" s="22"/>
@@ -1755,7 +1755,7 @@
         <v>94</v>
       </c>
       <c r="P12" s="23" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="Q12" s="22"/>
       <c r="R12" s="22"/>
@@ -1811,7 +1811,7 @@
         <v>30</v>
       </c>
       <c r="P13" s="23" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="Q13" s="22"/>
       <c r="R13" s="22"/>
@@ -1867,7 +1867,7 @@
         <v>31</v>
       </c>
       <c r="P14" s="23" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="Q14" s="22"/>
       <c r="R14" s="22"/>
@@ -1919,7 +1919,7 @@
         <v>29</v>
       </c>
       <c r="P15" s="11" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="S15" s="10">
         <v>0</v>
@@ -1969,7 +1969,7 @@
         <v>93</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="S16" s="10">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>94</v>
       </c>
       <c r="P17" s="11" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="S17" s="10">
         <v>0</v>
@@ -2069,7 +2069,7 @@
         <v>30</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="S18" s="10">
         <v>0</v>
@@ -2119,7 +2119,7 @@
         <v>31</v>
       </c>
       <c r="P19" s="11" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="S19" s="10">
         <v>0</v>
@@ -2169,7 +2169,7 @@
         <v>121</v>
       </c>
       <c r="P20" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q20" s="17"/>
       <c r="R20" s="17"/>
@@ -2221,7 +2221,7 @@
         <v>122</v>
       </c>
       <c r="P21" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q21" s="17"/>
       <c r="R21" s="17"/>
@@ -2273,7 +2273,7 @@
         <v>123</v>
       </c>
       <c r="P22" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="17"/>
       <c r="R22" s="17"/>
@@ -2325,7 +2325,7 @@
         <v>124</v>
       </c>
       <c r="P23" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q23" s="17"/>
       <c r="R23" s="17"/>
@@ -2377,7 +2377,7 @@
         <v>125</v>
       </c>
       <c r="P24" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q24" s="17"/>
       <c r="R24" s="17"/>
@@ -2433,7 +2433,7 @@
         <v>29</v>
       </c>
       <c r="P25" s="11" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="S25" s="10">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>93</v>
       </c>
       <c r="P26" s="11" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="S26" s="10">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>94</v>
       </c>
       <c r="P27" s="11" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="S27" s="10">
         <v>0</v>
@@ -2595,7 +2595,7 @@
         <v>30</v>
       </c>
       <c r="P28" s="11" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="S28" s="10">
         <v>0</v>
@@ -2649,7 +2649,7 @@
         <v>31</v>
       </c>
       <c r="P29" s="11" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="S29" s="10">
         <v>0</v>

--- a/config_Release/game_gift_style_config.xlsx
+++ b/config_Release/game_gift_style_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="172">
   <si>
     <t>line|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -616,6 +616,32 @@
   </si>
   <si>
     <t>"ty_icon_jb_498y","ty_icon_jb_30y","com_icon_yb","ty_icon_jb_998y","ty_icon_jb_50y","com_award_icon_yb1","ty_icon_jb_2498y","ty_icon_jb_198y","com_award_icon_yb2",</t>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_cjj</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>key|权限</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10331,10332,10333,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10334,10091,10092,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","ty_icon_jb_30y","com_award_icon_cz1","ty_icon_jb_998y","ty_icon_jb_50y","com_award_icon_cz1","ty_icon_jb_2498y","ty_icon_jb_198y","com_award_icon_cz1",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","ty_icon_jb_30y","com_award_icon_cz1","ty_icon_jb_998y","ty_icon_jb_50y","ty_icon_yxb_2","ty_icon_jb_2498y","ty_icon_jb_198y","ty_icon_yxb_4",</t>
   </si>
 </sst>
 </file>
@@ -673,18 +699,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8DB4E2"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -721,26 +741,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
@@ -765,52 +773,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1088,798 +1091,823 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O7" sqref="O7"/>
+      <selection pane="bottomRight" activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="48.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="19" style="3" customWidth="1"/>
-    <col min="11" max="11" width="17.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="19" style="3" customWidth="1"/>
-    <col min="15" max="15" width="89.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="71.25" style="2" customWidth="1"/>
-    <col min="17" max="17" width="30.875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="34.25" style="2" customWidth="1"/>
-    <col min="19" max="19" width="11.125" style="2" customWidth="1"/>
-    <col min="20" max="20" width="30.5" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="16.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="48.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="19" style="2" customWidth="1"/>
+    <col min="12" max="12" width="17.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="19" style="2" customWidth="1"/>
+    <col min="16" max="16" width="89.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="71.25" style="1" customWidth="1"/>
+    <col min="18" max="18" width="30.875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="34.25" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11.125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="30.5" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="35.25" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:21" ht="35.25" customHeight="1">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A2" s="3">
+    <row r="2" spans="1:21" ht="18.75" customHeight="1">
+      <c r="A2" s="23">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="8"/>
+      <c r="H2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5" t="s">
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="2">
+      <c r="T2" s="3">
         <v>1</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="U2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A3" s="3">
+    <row r="3" spans="1:21" ht="18.75" customHeight="1">
+      <c r="A3" s="23">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="2">
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="3">
         <v>1</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="U3" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A4" s="3">
+    <row r="4" spans="1:21" ht="18.75" customHeight="1">
+      <c r="A4" s="23">
         <v>3</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="F4" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="G4" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="H4" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="H4" s="29"/>
-      <c r="I4" s="27">
+      <c r="I4" s="4"/>
+      <c r="J4" s="8">
         <v>1</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="K4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="27" t="s">
+      <c r="L4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="L4" s="27" t="s">
+      <c r="M4" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="27" t="s">
+      <c r="N4" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="N4" s="29" t="s">
+      <c r="O4" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="O4" s="30" t="s">
+      <c r="P4" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="P4" s="32" t="s">
+      <c r="Q4" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="31">
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="3">
         <v>1</v>
       </c>
-      <c r="T4" s="30" t="s">
+      <c r="U4" s="25" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="7" customFormat="1">
-      <c r="A5" s="3">
+    <row r="5" spans="1:21" s="20" customFormat="1">
+      <c r="A5" s="23">
         <v>4</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="F5" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="G5" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="H5" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="27">
+      <c r="I5" s="18"/>
+      <c r="J5" s="16">
         <v>1</v>
       </c>
-      <c r="J5" s="27" t="s">
+      <c r="K5" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="27" t="s">
+      <c r="L5" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="L5" s="27" t="s">
+      <c r="M5" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="M5" s="27" t="s">
+      <c r="N5" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="N5" s="29" t="s">
+      <c r="O5" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="O5" s="30" t="s">
+      <c r="P5" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="P5" s="32" t="s">
+      <c r="Q5" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="31">
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="20">
         <v>1</v>
       </c>
-      <c r="T5" s="30" t="s">
+      <c r="U5" s="19" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="31" customFormat="1">
-      <c r="A6" s="3">
+    <row r="6" spans="1:21" s="20" customFormat="1">
+      <c r="A6" s="23">
         <v>5</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="F6" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="G6" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="H6" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="H6" s="29"/>
-      <c r="I6" s="27">
+      <c r="I6" s="18"/>
+      <c r="J6" s="16">
         <v>1</v>
       </c>
-      <c r="J6" s="27" t="s">
+      <c r="K6" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="K6" s="27" t="s">
+      <c r="L6" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="L6" s="27" t="s">
+      <c r="M6" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="M6" s="27" t="s">
+      <c r="N6" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="N6" s="29" t="s">
+      <c r="O6" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="O6" s="30" t="s">
+      <c r="P6" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="P6" s="32" t="s">
+      <c r="Q6" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="31">
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="20">
         <v>1</v>
       </c>
-      <c r="T6" s="30" t="s">
+      <c r="U6" s="19" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="7" customFormat="1">
-      <c r="A7" s="3">
+    <row r="7" spans="1:21" s="3" customFormat="1">
+      <c r="A7" s="23">
         <v>6</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="8"/>
+      <c r="E7" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="F7" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="G7" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="H7" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="H7" s="29"/>
-      <c r="I7" s="27">
+      <c r="I7" s="4"/>
+      <c r="J7" s="8">
         <v>1</v>
       </c>
-      <c r="J7" s="27" t="s">
+      <c r="K7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="K7" s="27" t="s">
+      <c r="L7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="L7" s="27" t="s">
+      <c r="M7" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="M7" s="27" t="s">
+      <c r="N7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="N7" s="29" t="s">
+      <c r="O7" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="O7" s="30" t="s">
+      <c r="P7" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="P7" s="32" t="s">
+      <c r="Q7" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="31">
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="3">
         <v>1</v>
       </c>
-      <c r="T7" s="30" t="s">
+      <c r="U7" s="25" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="7" customFormat="1">
-      <c r="A8" s="3">
+    <row r="8" spans="1:21" s="3" customFormat="1">
+      <c r="A8" s="23">
         <v>7</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="8"/>
+      <c r="E8" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="F8" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="G8" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="H8" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="27">
+      <c r="I8" s="4"/>
+      <c r="J8" s="8">
         <v>1</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="K8" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="27" t="s">
+      <c r="L8" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="L8" s="27" t="s">
+      <c r="M8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="M8" s="27" t="s">
+      <c r="N8" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="N8" s="29" t="s">
+      <c r="O8" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="O8" s="30" t="s">
+      <c r="P8" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="P8" s="32" t="s">
+      <c r="Q8" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="31">
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="3">
         <v>1</v>
       </c>
-      <c r="T8" s="30" t="s">
+      <c r="U8" s="25" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="7" customFormat="1">
-      <c r="A9" s="3">
+    <row r="9" spans="1:21" s="3" customFormat="1">
+      <c r="A9" s="23">
         <v>8</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="8"/>
+      <c r="E9" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="F9" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="G9" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="H9" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="27">
+      <c r="I9" s="4"/>
+      <c r="J9" s="8">
         <v>1</v>
       </c>
-      <c r="J9" s="27" t="s">
+      <c r="K9" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="K9" s="27" t="s">
+      <c r="L9" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="L9" s="27" t="s">
+      <c r="M9" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="M9" s="27" t="s">
+      <c r="N9" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="N9" s="29" t="s">
+      <c r="O9" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="O9" s="30" t="s">
+      <c r="P9" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="P9" s="32" t="s">
+      <c r="Q9" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="31">
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="3">
         <v>1</v>
       </c>
-      <c r="T9" s="30" t="s">
+      <c r="U9" s="25" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="24" customFormat="1">
-      <c r="A10" s="3">
+    <row r="10" spans="1:21" s="20" customFormat="1">
+      <c r="A10" s="23">
         <v>9</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" s="18"/>
+      <c r="J10" s="16">
+        <v>1</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="O10" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q10" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="20">
+        <v>1</v>
+      </c>
+      <c r="U10" s="19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" s="20" customFormat="1">
+      <c r="A11" s="23">
+        <v>10</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11" s="18"/>
+      <c r="J11" s="16">
+        <v>1</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="O11" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q11" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="20">
+        <v>1</v>
+      </c>
+      <c r="U11" s="19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" s="13" customFormat="1">
+      <c r="A12" s="23">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="F12" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="G12" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="H12" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20">
+      <c r="I12" s="8"/>
+      <c r="J12" s="8">
         <v>1</v>
       </c>
-      <c r="J10" s="20" t="s">
+      <c r="K12" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="20" t="s">
+      <c r="L12" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="L10" s="20" t="s">
+      <c r="M12" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="M10" s="20" t="s">
+      <c r="N12" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="N10" s="20" t="s">
+      <c r="O12" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="O10" s="22" t="s">
+      <c r="P12" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="P10" s="23" t="s">
+      <c r="Q12" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="24">
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="3">
         <v>0</v>
       </c>
-      <c r="T10" s="24" t="s">
+      <c r="U12" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="24" customFormat="1">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="20" t="s">
+    <row r="13" spans="1:21" s="13" customFormat="1">
+      <c r="A13" s="23">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D13" s="8"/>
+      <c r="E13" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="F13" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="G13" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="H13" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20">
+      <c r="I13" s="8"/>
+      <c r="J13" s="8">
         <v>1</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="K13" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="20" t="s">
+      <c r="L13" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="L11" s="20" t="s">
+      <c r="M13" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="M11" s="20" t="s">
+      <c r="N13" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="N11" s="20" t="s">
+      <c r="O13" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="O11" s="22" t="s">
+      <c r="P13" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="P11" s="23" t="s">
+      <c r="Q13" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="24">
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="3">
         <v>0</v>
       </c>
-      <c r="T11" s="24" t="s">
+      <c r="U13" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="24" customFormat="1">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="20" t="s">
+    <row r="14" spans="1:21" s="13" customFormat="1">
+      <c r="A14" s="23">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D14" s="8"/>
+      <c r="E14" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="F14" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="G14" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="H14" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20">
+      <c r="I14" s="8"/>
+      <c r="J14" s="8">
         <v>1</v>
       </c>
-      <c r="J12" s="20" t="s">
+      <c r="K14" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="K12" s="20" t="s">
+      <c r="L14" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="L12" s="20" t="s">
+      <c r="M14" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="M12" s="20" t="s">
+      <c r="N14" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="N12" s="20" t="s">
+      <c r="O14" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="O12" s="22" t="s">
+      <c r="P14" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="P12" s="23" t="s">
+      <c r="Q14" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="24">
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="T12" s="24" t="s">
+      <c r="U14" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="24" customFormat="1">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20">
-        <v>1</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="K13" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="L13" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="M13" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="N13" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="O13" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="P13" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="24">
-        <v>0</v>
-      </c>
-      <c r="T13" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" s="24" customFormat="1">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20">
-        <v>1</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="K14" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="L14" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="M14" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="N14" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="O14" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="P14" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="24">
-        <v>0</v>
-      </c>
-      <c r="T14" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" s="10" customFormat="1">
-      <c r="A15" s="3">
+    <row r="15" spans="1:21" s="13" customFormat="1">
+      <c r="A15" s="23">
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -1888,48 +1916,55 @@
       <c r="C15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>138</v>
+      <c r="D15" s="8"/>
+      <c r="E15" s="24" t="s">
+        <v>73</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
+      <c r="J15" s="8">
+        <v>1</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="L15" s="8" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O15" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="P15" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="S15" s="10">
+        <v>49</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="P15" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="3">
         <v>0</v>
       </c>
-      <c r="T15" s="10" t="s">
+      <c r="U15" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="10" customFormat="1">
-      <c r="A16" s="3">
+    <row r="16" spans="1:21" s="13" customFormat="1">
+      <c r="A16" s="23">
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1938,723 +1973,845 @@
       <c r="C16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8"/>
+      <c r="E16" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8">
+        <v>1</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="P16" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q16" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="3">
+        <v>0</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" s="6" customFormat="1">
+      <c r="A17" s="23">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="T17" s="6">
+        <v>0</v>
+      </c>
+      <c r="U17" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" s="6" customFormat="1">
+      <c r="A18" s="23">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="F18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="G18" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="H18" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="I18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8" t="s">
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="M16" s="8" t="s">
+      <c r="N18" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="N16" s="8" t="s">
+      <c r="O18" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="O16" s="10" t="s">
+      <c r="P18" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="P16" s="11" t="s">
+      <c r="Q18" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="S16" s="10">
+      <c r="T18" s="6">
         <v>0</v>
       </c>
-      <c r="T16" s="10" t="s">
+      <c r="U18" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="10" customFormat="1">
-      <c r="A17" s="3">
+    <row r="19" spans="1:21" s="6" customFormat="1">
+      <c r="A19" s="23">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="T19" s="6">
+        <v>0</v>
+      </c>
+      <c r="U19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
+    </row>
+    <row r="20" spans="1:21" s="6" customFormat="1">
+      <c r="A20" s="23">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="8" t="s">
+      <c r="D20" s="4"/>
+      <c r="E20" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="G20" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="H20" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H17" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8" t="s">
+      <c r="I20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="M17" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="N17" s="8" t="s">
+      <c r="N20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O20" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="O17" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="P17" s="11" t="s">
+      <c r="P20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="S17" s="10">
+      <c r="T20" s="6">
         <v>0</v>
       </c>
-      <c r="T17" s="10" t="s">
+      <c r="U20" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="10" customFormat="1">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="8" t="s">
+    <row r="21" spans="1:21" s="6" customFormat="1">
+      <c r="A21" s="23">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" s="8" t="s">
+      <c r="D21" s="4"/>
+      <c r="E21" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="G21" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="H21" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H18" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8" t="s">
+      <c r="I21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="M18" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="N18" s="8" t="s">
+      <c r="N21" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O21" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="O18" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="P18" s="11" t="s">
+      <c r="P21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="S18" s="10">
+      <c r="T21" s="6">
         <v>0</v>
       </c>
-      <c r="T18" s="10" t="s">
+      <c r="U21" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="10" customFormat="1">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="8" t="s">
+    <row r="22" spans="1:21" s="12" customFormat="1">
+      <c r="A22" s="23">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="N19" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="O19" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="P19" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="S19" s="10">
+      <c r="D22" s="8"/>
+      <c r="E22" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="P22" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q22" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="T19" s="10" t="s">
+      <c r="U22" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="19" customFormat="1">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="15" t="s">
+    <row r="23" spans="1:21" s="12" customFormat="1">
+      <c r="A23" s="23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C23" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15" t="s">
+      <c r="D23" s="8"/>
+      <c r="E23" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="K20" s="15" t="s">
+      <c r="L23" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="L20" s="15" t="s">
+      <c r="M23" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="M20" s="15" t="s">
+      <c r="N23" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="N20" s="15" t="s">
+      <c r="O23" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="O20" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="P20" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="19">
+      <c r="P23" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q23" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="3">
         <v>0</v>
       </c>
-      <c r="T20" s="19" t="s">
+      <c r="U23" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:20" s="19" customFormat="1">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="15" t="s">
+    <row r="24" spans="1:21" s="12" customFormat="1">
+      <c r="A24" s="23">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C24" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="E21" s="15" t="s">
+      <c r="D24" s="8"/>
+      <c r="E24" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="G24" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15" t="s">
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="K21" s="15" t="s">
+      <c r="L24" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="L21" s="15" t="s">
+      <c r="M24" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="M21" s="15" t="s">
+      <c r="N24" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="N21" s="15" t="s">
+      <c r="O24" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="O21" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="P21" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="19">
+      <c r="P24" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q24" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="3">
         <v>0</v>
       </c>
-      <c r="T21" s="19" t="s">
+      <c r="U24" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:20" s="19" customFormat="1">
-      <c r="A22" s="3">
-        <v>21</v>
-      </c>
-      <c r="B22" s="15" t="s">
+    <row r="25" spans="1:21" s="12" customFormat="1">
+      <c r="A25" s="23">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>129</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="K22" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="L22" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="M22" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="N22" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="O22" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="P22" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="19">
-        <v>0</v>
-      </c>
-      <c r="T22" s="19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" s="19" customFormat="1">
-      <c r="A23" s="3">
-        <v>22</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="K23" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="L23" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="M23" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="N23" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="O23" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="P23" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="19">
-        <v>0</v>
-      </c>
-      <c r="T23" s="19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" s="19" customFormat="1">
-      <c r="A24" s="3">
-        <v>23</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="K24" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="L24" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="M24" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="N24" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="O24" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="P24" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="19">
-        <v>0</v>
-      </c>
-      <c r="T24" s="19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" s="10" customFormat="1">
-      <c r="A25" s="3">
-        <v>24</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>141</v>
+      <c r="D25" s="8"/>
+      <c r="E25" s="24" t="s">
+        <v>103</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="H25" s="8"/>
-      <c r="I25" s="8">
-        <v>1</v>
-      </c>
-      <c r="J25" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="K25" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="L25" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="M25" s="12" t="s">
-        <v>49</v>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="N25" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O25" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="O25" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="P25" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="S25" s="10">
+      <c r="P25" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q25" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="3">
         <v>0</v>
       </c>
-      <c r="T25" s="10" t="s">
+      <c r="U25" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:20" s="10" customFormat="1">
-      <c r="A26" s="3">
+    <row r="26" spans="1:21" s="12" customFormat="1">
+      <c r="A26" s="23">
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="8"/>
+      <c r="E26" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="P26" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q26" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" s="6" customFormat="1">
+      <c r="A27" s="23">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4">
+        <v>1</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="T27" s="6">
+        <v>0</v>
+      </c>
+      <c r="U27" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" s="6" customFormat="1">
+      <c r="A28" s="23">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="F28" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="G28" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="H28" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8">
+      <c r="I28" s="4"/>
+      <c r="J28" s="4">
         <v>1</v>
       </c>
-      <c r="J26" s="12" t="s">
+      <c r="K28" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="K26" s="12" t="s">
+      <c r="L28" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="L26" s="12" t="s">
+      <c r="M28" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="M26" s="12" t="s">
+      <c r="N28" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="N26" s="8" t="s">
+      <c r="O28" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O26" s="10" t="s">
+      <c r="P28" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="P26" s="11" t="s">
+      <c r="Q28" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="S26" s="10">
+      <c r="T28" s="6">
         <v>0</v>
       </c>
-      <c r="T26" s="10" t="s">
+      <c r="U28" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:20" s="10" customFormat="1">
-      <c r="A27" s="3">
-        <v>26</v>
-      </c>
-      <c r="B27" s="8" t="s">
+    <row r="29" spans="1:21" s="6" customFormat="1">
+      <c r="A29" s="23">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C29" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D29" s="4"/>
+      <c r="E29" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="F29" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="G29" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="H29" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8">
+      <c r="I29" s="4"/>
+      <c r="J29" s="4">
         <v>1</v>
       </c>
-      <c r="J27" s="12" t="s">
+      <c r="K29" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="K27" s="12" t="s">
+      <c r="L29" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="L27" s="12" t="s">
+      <c r="M29" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="M27" s="12" t="s">
+      <c r="N29" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="N27" s="8" t="s">
+      <c r="O29" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O27" s="10" t="s">
+      <c r="P29" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="P27" s="11" t="s">
+      <c r="Q29" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="S27" s="10">
+      <c r="T29" s="6">
         <v>0</v>
       </c>
-      <c r="T27" s="10" t="s">
+      <c r="U29" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:20" s="10" customFormat="1">
-      <c r="A28" s="3">
-        <v>27</v>
-      </c>
-      <c r="B28" s="8" t="s">
+    <row r="30" spans="1:21" s="6" customFormat="1">
+      <c r="A30" s="23">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C30" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D30" s="4"/>
+      <c r="E30" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="F30" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="G30" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="H30" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8">
+      <c r="I30" s="4"/>
+      <c r="J30" s="4">
         <v>1</v>
       </c>
-      <c r="J28" s="12" t="s">
+      <c r="K30" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="K28" s="12" t="s">
+      <c r="L30" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="L28" s="12" t="s">
+      <c r="M30" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="M28" s="12" t="s">
+      <c r="N30" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="N28" s="8" t="s">
+      <c r="O30" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O28" s="10" t="s">
+      <c r="P30" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="P28" s="11" t="s">
+      <c r="Q30" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="S28" s="10">
+      <c r="T30" s="6">
         <v>0</v>
       </c>
-      <c r="T28" s="10" t="s">
+      <c r="U30" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:20" s="10" customFormat="1">
-      <c r="A29" s="3">
-        <v>28</v>
-      </c>
-      <c r="B29" s="8" t="s">
+    <row r="31" spans="1:21" s="6" customFormat="1">
+      <c r="A31" s="23">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C31" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D31" s="4"/>
+      <c r="E31" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="F31" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="G31" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="H31" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8">
+      <c r="I31" s="4"/>
+      <c r="J31" s="4">
         <v>1</v>
       </c>
-      <c r="J29" s="12" t="s">
+      <c r="K31" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="K29" s="12" t="s">
+      <c r="L31" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="L29" s="12" t="s">
+      <c r="M31" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="M29" s="12" t="s">
+      <c r="N31" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="N29" s="8" t="s">
+      <c r="O31" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O29" s="10" t="s">
+      <c r="P31" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="P29" s="11" t="s">
+      <c r="Q31" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="S29" s="10">
+      <c r="T31" s="6">
         <v>0</v>
       </c>
-      <c r="T29" s="10" t="s">
+      <c r="U31" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2683,20 +2840,20 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="9">
         <v>10103</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="10" t="s">
         <v>69</v>
       </c>
       <c r="H5" t="str">
         <f>CONCATENATE(F5,$G$5,F6,$G$5,F7,$G$5,)</f>
         <v>10103,10104,10105,</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="K5" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="L5" s="14"/>
+      <c r="L5" s="10"/>
       <c r="M5" t="str">
         <f>CONCATENATE(K5,K6,K7,)</f>
         <v>"1万鲸币","记牌器*1","铲子*1","3万鲸币","记牌器*2","铲子*2","6万鲸币","记牌器*3","铲子*3",</v>
@@ -2706,10 +2863,10 @@
       <c r="E6">
         <v>2</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="9">
         <v>10104</v>
       </c>
-      <c r="K6" s="25" t="s">
+      <c r="K6" s="14" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2717,10 +2874,10 @@
       <c r="E7">
         <v>3</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="9">
         <v>10105</v>
       </c>
-      <c r="K7" s="25" t="s">
+      <c r="K7" s="14" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2728,14 +2885,14 @@
       <c r="E8">
         <v>4</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="9">
         <v>10106</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" ref="H8:H62" si="0">CONCATENATE(F8,$G$5,F9,$G$5,F10,$G$5,)</f>
         <v>10106,10107,10108,</v>
       </c>
-      <c r="K8" s="25" t="s">
+      <c r="K8" s="14" t="s">
         <v>110</v>
       </c>
       <c r="M8" t="str">
@@ -2747,10 +2904,10 @@
       <c r="E9">
         <v>5</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="9">
         <v>10107</v>
       </c>
-      <c r="K9" s="25" t="s">
+      <c r="K9" s="14" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2758,10 +2915,10 @@
       <c r="E10">
         <v>6</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="9">
         <v>10108</v>
       </c>
-      <c r="K10" s="25" t="s">
+      <c r="K10" s="14" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2769,14 +2926,14 @@
       <c r="E11">
         <v>7</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="9">
         <v>10109</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
         <v>10109,10110,10111,</v>
       </c>
-      <c r="K11" s="25" t="s">
+      <c r="K11" s="14" t="s">
         <v>113</v>
       </c>
       <c r="M11" t="str">
@@ -2788,10 +2945,10 @@
       <c r="E12">
         <v>8</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="9">
         <v>10110</v>
       </c>
-      <c r="K12" s="25" t="s">
+      <c r="K12" s="14" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2799,10 +2956,10 @@
       <c r="E13">
         <v>9</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="9">
         <v>10111</v>
       </c>
-      <c r="K13" s="25" t="s">
+      <c r="K13" s="14" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2810,14 +2967,14 @@
       <c r="E14">
         <v>10</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="9">
         <v>10112</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
         <v>10112,10113,10114,</v>
       </c>
-      <c r="K14" s="25" t="s">
+      <c r="K14" s="14" t="s">
         <v>116</v>
       </c>
       <c r="M14" t="str">
@@ -2829,10 +2986,10 @@
       <c r="E15">
         <v>11</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="9">
         <v>10113</v>
       </c>
-      <c r="K15" s="25" t="s">
+      <c r="K15" s="14" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2840,10 +2997,10 @@
       <c r="E16">
         <v>12</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="9">
         <v>10114</v>
       </c>
-      <c r="K16" s="25" t="s">
+      <c r="K16" s="14" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2851,14 +3008,14 @@
       <c r="E17">
         <v>13</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="9">
         <v>10115</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
         <v>10115,10116,10117,</v>
       </c>
-      <c r="K17" s="25" t="s">
+      <c r="K17" s="14" t="s">
         <v>119</v>
       </c>
       <c r="M17" t="str">
@@ -2870,10 +3027,10 @@
       <c r="E18">
         <v>14</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="9">
         <v>10116</v>
       </c>
-      <c r="K18" s="25" t="s">
+      <c r="K18" s="14" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2881,10 +3038,10 @@
       <c r="E19">
         <v>15</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="9">
         <v>10117</v>
       </c>
-      <c r="K19" s="25" t="s">
+      <c r="K19" s="14" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2892,7 +3049,7 @@
       <c r="E20">
         <v>16</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="9">
         <v>10118</v>
       </c>
       <c r="H20" t="str">
@@ -2904,7 +3061,7 @@
       <c r="E21">
         <v>17</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="9">
         <v>10119</v>
       </c>
     </row>
@@ -2912,7 +3069,7 @@
       <c r="E22">
         <v>18</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="9">
         <v>10120</v>
       </c>
     </row>
@@ -2920,7 +3077,7 @@
       <c r="E23">
         <v>19</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="9">
         <v>10121</v>
       </c>
       <c r="H23" t="str">
@@ -2935,7 +3092,7 @@
       <c r="E24">
         <v>20</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="9">
         <v>10122</v>
       </c>
       <c r="M24" t="s">
@@ -2946,7 +3103,7 @@
       <c r="E25">
         <v>21</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="9">
         <v>10123</v>
       </c>
       <c r="M25" t="s">
@@ -2957,7 +3114,7 @@
       <c r="E26">
         <v>22</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="9">
         <v>10124</v>
       </c>
       <c r="H26" t="str">
@@ -2972,7 +3129,7 @@
       <c r="E27">
         <v>23</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="9">
         <v>10125</v>
       </c>
       <c r="M27" t="s">
@@ -2983,7 +3140,7 @@
       <c r="E28">
         <v>24</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="9">
         <v>10126</v>
       </c>
     </row>
@@ -2991,7 +3148,7 @@
       <c r="E29">
         <v>25</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="9">
         <v>10127</v>
       </c>
       <c r="H29" t="str">
@@ -3003,7 +3160,7 @@
       <c r="E30">
         <v>26</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F30" s="9">
         <v>10128</v>
       </c>
     </row>
@@ -3011,7 +3168,7 @@
       <c r="E31">
         <v>27</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="9">
         <v>10129</v>
       </c>
     </row>
@@ -3019,7 +3176,7 @@
       <c r="E32">
         <v>28</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F32" s="9">
         <v>10130</v>
       </c>
       <c r="H32" t="str">
@@ -3031,7 +3188,7 @@
       <c r="E33">
         <v>29</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="9">
         <v>10131</v>
       </c>
     </row>
@@ -3039,7 +3196,7 @@
       <c r="E34">
         <v>30</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="9">
         <v>10132</v>
       </c>
     </row>
@@ -3047,7 +3204,7 @@
       <c r="E35">
         <v>31</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="9">
         <v>10133</v>
       </c>
       <c r="H35" t="str">
@@ -3059,7 +3216,7 @@
       <c r="E36">
         <v>32</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F36" s="9">
         <v>10134</v>
       </c>
     </row>
@@ -3067,7 +3224,7 @@
       <c r="E37">
         <v>33</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F37" s="9">
         <v>10135</v>
       </c>
     </row>
@@ -3075,7 +3232,7 @@
       <c r="E38">
         <v>34</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="9">
         <v>10136</v>
       </c>
       <c r="H38" t="str">
@@ -3087,7 +3244,7 @@
       <c r="E39">
         <v>35</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="9">
         <v>10137</v>
       </c>
     </row>
@@ -3095,7 +3252,7 @@
       <c r="E40">
         <v>36</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F40" s="9">
         <v>10138</v>
       </c>
     </row>
@@ -3103,7 +3260,7 @@
       <c r="E41">
         <v>37</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F41" s="9">
         <v>10139</v>
       </c>
       <c r="H41" t="str">
@@ -3115,7 +3272,7 @@
       <c r="E42">
         <v>38</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F42" s="9">
         <v>10140</v>
       </c>
     </row>
@@ -3123,7 +3280,7 @@
       <c r="E43">
         <v>39</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F43" s="9">
         <v>10141</v>
       </c>
     </row>
@@ -3131,7 +3288,7 @@
       <c r="E44">
         <v>40</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F44" s="9">
         <v>10142</v>
       </c>
       <c r="H44" t="str">
@@ -3143,7 +3300,7 @@
       <c r="E45">
         <v>41</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F45" s="9">
         <v>10143</v>
       </c>
     </row>
@@ -3151,7 +3308,7 @@
       <c r="E46">
         <v>42</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F46" s="9">
         <v>10144</v>
       </c>
     </row>
@@ -3159,7 +3316,7 @@
       <c r="E47">
         <v>43</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F47" s="9">
         <v>10145</v>
       </c>
       <c r="H47" t="str">
@@ -3171,7 +3328,7 @@
       <c r="E48">
         <v>44</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F48" s="9">
         <v>10146</v>
       </c>
     </row>
@@ -3179,7 +3336,7 @@
       <c r="E49">
         <v>45</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F49" s="9">
         <v>10147</v>
       </c>
     </row>
@@ -3187,7 +3344,7 @@
       <c r="E50">
         <v>46</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F50" s="9">
         <v>10148</v>
       </c>
       <c r="H50" t="str">
@@ -3199,7 +3356,7 @@
       <c r="E51">
         <v>47</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F51" s="9">
         <v>10149</v>
       </c>
     </row>
@@ -3207,7 +3364,7 @@
       <c r="E52">
         <v>48</v>
       </c>
-      <c r="F52" s="13">
+      <c r="F52" s="9">
         <v>10150</v>
       </c>
     </row>
@@ -3215,7 +3372,7 @@
       <c r="E53">
         <v>49</v>
       </c>
-      <c r="F53" s="13">
+      <c r="F53" s="9">
         <v>10151</v>
       </c>
       <c r="H53" t="str">
@@ -3227,7 +3384,7 @@
       <c r="E54">
         <v>50</v>
       </c>
-      <c r="F54" s="13">
+      <c r="F54" s="9">
         <v>10152</v>
       </c>
     </row>
@@ -3235,7 +3392,7 @@
       <c r="E55">
         <v>51</v>
       </c>
-      <c r="F55" s="13">
+      <c r="F55" s="9">
         <v>10153</v>
       </c>
     </row>
@@ -3243,7 +3400,7 @@
       <c r="E56">
         <v>52</v>
       </c>
-      <c r="F56" s="13">
+      <c r="F56" s="9">
         <v>10154</v>
       </c>
       <c r="H56" t="str">
@@ -3255,7 +3412,7 @@
       <c r="E57">
         <v>53</v>
       </c>
-      <c r="F57" s="13">
+      <c r="F57" s="9">
         <v>10155</v>
       </c>
     </row>
@@ -3263,7 +3420,7 @@
       <c r="E58">
         <v>54</v>
       </c>
-      <c r="F58" s="13">
+      <c r="F58" s="9">
         <v>10156</v>
       </c>
     </row>
@@ -3271,7 +3428,7 @@
       <c r="E59">
         <v>55</v>
       </c>
-      <c r="F59" s="13">
+      <c r="F59" s="9">
         <v>10157</v>
       </c>
       <c r="H59" t="str">
@@ -3283,7 +3440,7 @@
       <c r="E60">
         <v>56</v>
       </c>
-      <c r="F60" s="13">
+      <c r="F60" s="9">
         <v>10158</v>
       </c>
     </row>
@@ -3291,7 +3448,7 @@
       <c r="E61">
         <v>57</v>
       </c>
-      <c r="F61" s="13">
+      <c r="F61" s="9">
         <v>10159</v>
       </c>
     </row>
@@ -3299,7 +3456,7 @@
       <c r="E62">
         <v>58</v>
       </c>
-      <c r="F62" s="13">
+      <c r="F62" s="9">
         <v>10160</v>
       </c>
       <c r="H62" t="str">
@@ -3311,7 +3468,7 @@
       <c r="E63">
         <v>59</v>
       </c>
-      <c r="F63" s="13">
+      <c r="F63" s="9">
         <v>10161</v>
       </c>
     </row>
@@ -3319,7 +3476,7 @@
       <c r="E64">
         <v>60</v>
       </c>
-      <c r="F64" s="13">
+      <c r="F64" s="9">
         <v>10162</v>
       </c>
     </row>
@@ -3343,52 +3500,52 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:3" ht="49.5" customHeight="1">
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="15" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="5" spans="3:3" ht="49.5" customHeight="1">
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="6" spans="3:3" ht="49.5" customHeight="1">
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="11" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="7" spans="3:3" ht="49.5" customHeight="1">
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="11" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="8" spans="3:3" ht="49.5" customHeight="1">
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="11" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="12" spans="3:3">
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="15" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="13" spans="3:3">
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="11" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="11" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="11" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="16" spans="3:3">
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="11" t="s">
         <v>128</v>
       </c>
     </row>

--- a/config_Release/game_gift_style_config.xlsx
+++ b/config_Release/game_gift_style_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_10.27\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -630,18 +630,18 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>10331,10332,10333,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10334,10091,10092,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"ty_icon_jb_498y","ty_icon_jb_30y","com_award_icon_cz1","ty_icon_jb_998y","ty_icon_jb_50y","com_award_icon_cz1","ty_icon_jb_2498y","ty_icon_jb_198y","com_award_icon_cz1",</t>
   </si>
   <si>
     <t>"ty_icon_jb_498y","ty_icon_jb_30y","com_award_icon_cz1","ty_icon_jb_998y","ty_icon_jb_50y","ty_icon_yxb_2","ty_icon_jb_2498y","ty_icon_jb_198y","ty_icon_yxb_4",</t>
+  </si>
+  <si>
+    <t>10346,10347,10348,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10349,10091,10092,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1097,7 +1097,7 @@
       <pane xSplit="5" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q10" sqref="Q10"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1631,7 +1631,7 @@
         <v>166</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>98</v>
@@ -1665,7 +1665,7 @@
         <v>154</v>
       </c>
       <c r="Q10" s="21" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="R10" s="19"/>
       <c r="S10" s="19"/>
@@ -1690,7 +1690,7 @@
         <v>166</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>95</v>
@@ -1724,7 +1724,7 @@
         <v>153</v>
       </c>
       <c r="Q11" s="21" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="R11" s="19"/>
       <c r="S11" s="19"/>

--- a/config_Release/game_gift_style_config.xlsx
+++ b/config_Release/game_gift_style_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_10.27\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.15\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -512,135 +512,139 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>mrth_dk_mrth</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjslb_bg_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gdnlb_bg_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wylb_bg_wylb</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wylb_bg_2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>nxxlb_bg_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包免费用户，模板4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包新用户，模板4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包小额用户，模板4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包v1-3，模板4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包v4-7，模板4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包v8以上，模板4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FFEABFFF</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","bag_icon_jipaiqi","com_award_icon_chanz1","ty_icon_jb_998y","bag_icon_jipaiqi","com_award_icon_chanz2","ty_icon_jb_2498y","bag_icon_jipaiqi","com_award_icon_chanz3",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","bag_icon_jipaiqi","com_award_icon_chanz1","ty_icon_jb_998y","com_award_icon_yb1","com_award_icon_chanz2","ty_icon_jb_2498y","com_award_icon_yb2","com_award_icon_chanz3",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","com_icon_yb","com_award_icon_chanz1","ty_icon_jb_998y","com_award_icon_yb1","com_award_icon_chanz2","ty_icon_jb_2498y","com_award_icon_yb2","com_award_icon_chanz3",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","ty_icon_jb_30y","ty_icon_yxb_2","ty_icon_jb_998y","ty_icon_jb_50y","ty_icon_yxb_2","ty_icon_jb_2498y","ty_icon_jb_198y","ty_icon_yxb_2",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","ty_icon_jb_30y","3dby_btn_sd","ty_icon_jb_998y","ty_icon_jb_50y","3dby_btn_sd","ty_icon_jb_2498y","ty_icon_jb_198y","3dby_btn_sd",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","ty_icon_jb_30y","3dby_btn_sd","ty_icon_jb_998y","ty_icon_jb_50y","ty_icon_yxb_2","ty_icon_jb_2498y","ty_icon_jb_198y","ty_icon_yxb_4",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","ty_icon_jb_30y","ty_icon_yxb_2","ty_icon_jb_998y","ty_icon_jb_50y","ty_icon_yxb_4","ty_icon_jb_2498y","ty_icon_jb_198y","ty_icon_yxb_5",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","ty_icon_jb_30y","bag_icon_jipaiqi","ty_icon_jb_998y","ty_icon_jb_50y","bag_icon_jipaiqi","ty_icon_jb_2498y","ty_icon_jb_198y","bag_icon_jipaiqi",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","ty_icon_jb_30y","bag_icon_jipaiqi","ty_icon_jb_998y","ty_icon_jb_50y","com_award_icon_yb1","ty_icon_jb_2498y","ty_icon_jb_198y","com_award_icon_yb2",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","ty_icon_jb_30y","com_icon_yb","ty_icon_jb_998y","ty_icon_jb_50y","com_award_icon_yb1","ty_icon_jb_2498y","ty_icon_jb_198y","com_award_icon_yb2",</t>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_cjj</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>key|权限</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","ty_icon_jb_30y","com_award_icon_cz1","ty_icon_jb_998y","ty_icon_jb_50y","com_award_icon_cz1","ty_icon_jb_2498y","ty_icon_jb_198y","com_award_icon_cz1",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","ty_icon_jb_30y","com_award_icon_cz1","ty_icon_jb_998y","ty_icon_jb_50y","ty_icon_yxb_2","ty_icon_jb_2498y","ty_icon_jb_198y","ty_icon_yxb_4",</t>
+  </si>
+  <si>
+    <t>10346,10347,10348,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10349,10091,10092,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>10239,10240,10241,</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>mrth_dk_mrth</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>cjslb_bg_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gdnlb_bg_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>wylb_bg_wylb</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>wylb_bg_2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>nxxlb_bg_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日特惠礼包免费用户，模板4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日特惠礼包新用户，模板4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日特惠礼包小额用户，模板4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日特惠礼包v1-3，模板4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日特惠礼包v4-7，模板4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日特惠礼包v8以上，模板4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FFEABFFF</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"60万","10万","5万","480万","20万","10万","980万","30万","20万",</t>
-  </si>
-  <si>
-    <t>"180万","10万","10万","480万","20万","10万","980万","30万","20万",</t>
-  </si>
-  <si>
-    <t>"480万","20万","10万","980万","30万","20万","1980万","80万","30万",</t>
-  </si>
-  <si>
-    <t>"980万","30万","20万","1980万","80万","30万","4980万","150万","50万",</t>
-  </si>
-  <si>
-    <t>"60万","20万","3","100万","20万","10万","180万","20万","20万",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"10万","10万","1","30万","20万","2","60万","30万","3",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_498y","bag_icon_jipaiqi","com_award_icon_chanz1","ty_icon_jb_998y","bag_icon_jipaiqi","com_award_icon_chanz2","ty_icon_jb_2498y","bag_icon_jipaiqi","com_award_icon_chanz3",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_498y","bag_icon_jipaiqi","com_award_icon_chanz1","ty_icon_jb_998y","com_award_icon_yb1","com_award_icon_chanz2","ty_icon_jb_2498y","com_award_icon_yb2","com_award_icon_chanz3",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_498y","com_icon_yb","com_award_icon_chanz1","ty_icon_jb_998y","com_award_icon_yb1","com_award_icon_chanz2","ty_icon_jb_2498y","com_award_icon_yb2","com_award_icon_chanz3",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_498y","ty_icon_jb_30y","ty_icon_yxb_2","ty_icon_jb_998y","ty_icon_jb_50y","ty_icon_yxb_2","ty_icon_jb_2498y","ty_icon_jb_198y","ty_icon_yxb_2",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_498y","ty_icon_jb_30y","3dby_btn_sd","ty_icon_jb_998y","ty_icon_jb_50y","3dby_btn_sd","ty_icon_jb_2498y","ty_icon_jb_198y","3dby_btn_sd",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_498y","ty_icon_jb_30y","3dby_btn_sd","ty_icon_jb_998y","ty_icon_jb_50y","ty_icon_yxb_2","ty_icon_jb_2498y","ty_icon_jb_198y","ty_icon_yxb_4",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_498y","ty_icon_jb_30y","ty_icon_yxb_2","ty_icon_jb_998y","ty_icon_jb_50y","ty_icon_yxb_4","ty_icon_jb_2498y","ty_icon_jb_198y","ty_icon_yxb_5",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_498y","ty_icon_jb_30y","bag_icon_jipaiqi","ty_icon_jb_998y","ty_icon_jb_50y","bag_icon_jipaiqi","ty_icon_jb_2498y","ty_icon_jb_198y","bag_icon_jipaiqi",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_498y","ty_icon_jb_30y","bag_icon_jipaiqi","ty_icon_jb_998y","ty_icon_jb_50y","com_award_icon_yb1","ty_icon_jb_2498y","ty_icon_jb_198y","com_award_icon_yb2",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_498y","ty_icon_jb_30y","com_icon_yb","ty_icon_jb_998y","ty_icon_jb_50y","com_award_icon_yb1","ty_icon_jb_2498y","ty_icon_jb_198y","com_award_icon_yb2",</t>
-  </si>
-  <si>
-    <t>cpl_notcjj</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpl_cjj</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>key|权限</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_498y","ty_icon_jb_30y","com_award_icon_cz1","ty_icon_jb_998y","ty_icon_jb_50y","com_award_icon_cz1","ty_icon_jb_2498y","ty_icon_jb_198y","com_award_icon_cz1",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_498y","ty_icon_jb_30y","com_award_icon_cz1","ty_icon_jb_998y","ty_icon_jb_50y","ty_icon_yxb_2","ty_icon_jb_2498y","ty_icon_jb_198y","ty_icon_yxb_4",</t>
-  </si>
-  <si>
-    <t>10346,10347,10348,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10349,10091,10092,</t>
+    <t>"30万","40万","5万","240万","260万","10万","490万","520万","20万",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5万","15万","1","15万","35万","2","30万","60万","3",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"30万","50万","3","50万","70万","10万","90万","110万","20万",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"90万","100万","10万","240万","260万","10万","490万","520万","20万",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"240万","260万","10万","490万","520万","20万","990万","1070万","30万",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"490万","520万","20万","990万","1070万","30万","2490万","2640万","50万",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1094,10 +1098,10 @@
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="P10" sqref="P10:P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1133,7 +1137,7 @@
         <v>20</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E1" s="22" t="s">
         <v>1</v>
@@ -1283,13 +1287,13 @@
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="24" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>98</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>96</v>
@@ -1311,13 +1315,13 @@
         <v>49</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P4" s="25" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="Q4" s="26" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R4" s="25"/>
       <c r="S4" s="25"/>
@@ -1325,7 +1329,7 @@
         <v>1</v>
       </c>
       <c r="U4" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:21" s="20" customFormat="1">
@@ -1339,7 +1343,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>24</v>
@@ -1373,10 +1377,10 @@
         <v>65</v>
       </c>
       <c r="P5" s="19" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="Q5" s="21" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R5" s="19"/>
       <c r="S5" s="19"/>
@@ -1384,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="U5" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="20" customFormat="1">
@@ -1398,7 +1402,7 @@
         <v>23</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>28</v>
@@ -1432,10 +1436,10 @@
         <v>65</v>
       </c>
       <c r="P6" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q6" s="21" t="s">
         <v>153</v>
-      </c>
-      <c r="Q6" s="21" t="s">
-        <v>160</v>
       </c>
       <c r="R6" s="19"/>
       <c r="S6" s="19"/>
@@ -1443,7 +1447,7 @@
         <v>1</v>
       </c>
       <c r="U6" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:21" s="3" customFormat="1">
@@ -1489,10 +1493,10 @@
         <v>65</v>
       </c>
       <c r="P7" s="25" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="Q7" s="26" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R7" s="25"/>
       <c r="S7" s="25"/>
@@ -1500,7 +1504,7 @@
         <v>1</v>
       </c>
       <c r="U7" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="3" customFormat="1">
@@ -1546,10 +1550,10 @@
         <v>65</v>
       </c>
       <c r="P8" s="25" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="Q8" s="26" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R8" s="25"/>
       <c r="S8" s="25"/>
@@ -1557,7 +1561,7 @@
         <v>1</v>
       </c>
       <c r="U8" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="3" customFormat="1">
@@ -1603,10 +1607,10 @@
         <v>65</v>
       </c>
       <c r="P9" s="25" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="Q9" s="26" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R9" s="25"/>
       <c r="S9" s="25"/>
@@ -1614,7 +1618,7 @@
         <v>1</v>
       </c>
       <c r="U9" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="20" customFormat="1">
@@ -1628,10 +1632,10 @@
         <v>23</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>98</v>
@@ -1662,10 +1666,10 @@
         <v>65</v>
       </c>
       <c r="P10" s="19" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="Q10" s="21" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R10" s="19"/>
       <c r="S10" s="19"/>
@@ -1673,7 +1677,7 @@
         <v>1</v>
       </c>
       <c r="U10" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:21" s="20" customFormat="1">
@@ -1687,10 +1691,10 @@
         <v>23</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>95</v>
@@ -1721,10 +1725,10 @@
         <v>65</v>
       </c>
       <c r="P11" s="19" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="Q11" s="21" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="R11" s="19"/>
       <c r="S11" s="19"/>
@@ -1732,7 +1736,7 @@
         <v>1</v>
       </c>
       <c r="U11" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:21" s="13" customFormat="1">
@@ -1750,7 +1754,7 @@
         <v>70</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>67</v>
@@ -1781,7 +1785,7 @@
         <v>29</v>
       </c>
       <c r="Q12" s="27" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R12" s="25"/>
       <c r="S12" s="25"/>
@@ -1838,7 +1842,7 @@
         <v>93</v>
       </c>
       <c r="Q13" s="27" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R13" s="25"/>
       <c r="S13" s="25"/>
@@ -1895,7 +1899,7 @@
         <v>94</v>
       </c>
       <c r="Q14" s="27" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R14" s="25"/>
       <c r="S14" s="25"/>
@@ -1952,7 +1956,7 @@
         <v>30</v>
       </c>
       <c r="Q15" s="27" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R15" s="25"/>
       <c r="S15" s="25"/>
@@ -2009,7 +2013,7 @@
         <v>31</v>
       </c>
       <c r="Q16" s="27" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R16" s="25"/>
       <c r="S16" s="25"/>
@@ -2035,7 +2039,7 @@
         <v>75</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>99</v>
@@ -2056,13 +2060,13 @@
         <v>60</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P17" s="6" t="s">
         <v>29</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="T17" s="6">
         <v>0</v>
@@ -2113,7 +2117,7 @@
         <v>93</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="T18" s="6">
         <v>0</v>
@@ -2164,7 +2168,7 @@
         <v>94</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="T19" s="6">
         <v>0</v>
@@ -2215,7 +2219,7 @@
         <v>30</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="T20" s="6">
         <v>0</v>
@@ -2266,7 +2270,7 @@
         <v>31</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="T21" s="6">
         <v>0</v>
@@ -2290,10 +2294,10 @@
         <v>100</v>
       </c>
       <c r="F22" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G22" s="8" t="s">
         <v>139</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>140</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -2317,7 +2321,7 @@
         <v>121</v>
       </c>
       <c r="Q22" s="26" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R22" s="25"/>
       <c r="S22" s="25"/>
@@ -2370,7 +2374,7 @@
         <v>122</v>
       </c>
       <c r="Q23" s="27" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R23" s="25"/>
       <c r="S23" s="25"/>
@@ -2423,7 +2427,7 @@
         <v>123</v>
       </c>
       <c r="Q24" s="27" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R24" s="25"/>
       <c r="S24" s="25"/>
@@ -2476,7 +2480,7 @@
         <v>124</v>
       </c>
       <c r="Q25" s="27" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R25" s="25"/>
       <c r="S25" s="25"/>
@@ -2529,7 +2533,7 @@
         <v>125</v>
       </c>
       <c r="Q26" s="27" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R26" s="25"/>
       <c r="S26" s="25"/>
@@ -2555,7 +2559,7 @@
         <v>80</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>86</v>
@@ -2586,7 +2590,7 @@
         <v>29</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="T27" s="6">
         <v>0</v>
@@ -2641,7 +2645,7 @@
         <v>93</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="T28" s="6">
         <v>0</v>
@@ -2696,7 +2700,7 @@
         <v>94</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="T29" s="6">
         <v>0</v>
@@ -2751,7 +2755,7 @@
         <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="T30" s="6">
         <v>0</v>
@@ -2806,7 +2810,7 @@
         <v>31</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="T31" s="6">
         <v>0</v>
